--- a/7 - Motion In Two Dimensions/7-06 - Angular Displacement and Torque.xlsx
+++ b/7 - Motion In Two Dimensions/7-06 - Angular Displacement and Torque.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D7F6B-33FB-4AB9-B9B7-CE648202F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3100181-D84F-473A-886B-BA07EF2B93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Angular Displacement" sheetId="3" r:id="rId1"/>
+    <sheet name="Displacement Distance" sheetId="2" r:id="rId2"/>
+    <sheet name="Angular Acceleration" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Objective:</t>
   </si>
@@ -102,16 +102,54 @@
   </si>
   <si>
     <t>Wi = Wi * 2 * PI / 60</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>radians</t>
+  </si>
+  <si>
+    <t>How do you measure distance of a rotating wheel?</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>How do you measure the displacement given an angle?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,10 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +477,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39440432-3272-4F89-A078-56730983D3EA}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D4/D5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DAD211-CD3B-4A0D-B2E5-C7F3819016BB}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <f>D4*D5</f>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
